--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-06_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-06_end.xlsx
@@ -880,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  "It's not a waste to show respect."
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  'It's not a waste to show respect.'
 </t>
   </si>
   <si>
